--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1579644.243161158</v>
+        <v>-1582125.162986617</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10721426.73834738</v>
+        <v>10721426.73834739</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15.89700898690637</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838812</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335566</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851354</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0015790663271</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.6567831857995</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26761520104938</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524937</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717756</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302866</v>
+        <v>176.7309500419734</v>
       </c>
       <c r="X11" t="n">
         <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689272</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948109</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C13" t="n">
         <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
-        <v>121.695326431086</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594428</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
-        <v>91.33009347708145</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719018</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271944</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271171</v>
+        <v>69.43227382271164</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292095</v>
+        <v>62.01200608292088</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443155</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890428</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367016</v>
+        <v>4.031020393620913</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494646</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019108</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>56.77528211346988</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838812</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335566</v>
+        <v>327.7628950335565</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851354</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>379.955899154585</v>
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6876178001941</v>
+        <v>225.4136315639335</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579955</v>
+        <v>14.6567831857995</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104944</v>
+        <v>82.26761520104937</v>
       </c>
       <c r="T14" t="n">
         <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717756</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
         <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689272</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948109</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
-        <v>121.695326431086</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594428</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
         <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
-        <v>90.19994469729048</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271169</v>
+        <v>69.43227382271164</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292093</v>
+        <v>62.01200608292088</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443155</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890428</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184865</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367016</v>
+        <v>198.0466887779792</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494646</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019108</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577617</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652887</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7877584149641</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665429</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359926</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477346</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816016</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>35.29247858245679</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0998887531831</v>
+        <v>152.8863288975418</v>
       </c>
       <c r="V17" t="n">
-        <v>86.12002246737026</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3456855116942</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8358174727502</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503347</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762185</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290899</v>
+        <v>93.35153789290879</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249352</v>
+        <v>74.72018981249332</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085033</v>
+        <v>72.53867944085013</v>
       </c>
       <c r="F19" t="n">
-        <v>71.5257648172124</v>
+        <v>71.52576481721221</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330938</v>
+        <v>92.13052505330919</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860194</v>
+        <v>70.85973170860174</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411923</v>
+        <v>22.45713720411906</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>77.43656365928966</v>
+        <v>15.03686946432829</v>
       </c>
       <c r="S19" t="n">
-        <v>115.873742125723</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6536660704504</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
-        <v>212.316554999894</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V19" t="n">
-        <v>178.2423601181092</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6277151308722</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8143721833183</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6893701463759</v>
+        <v>207.0890643413397</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8385584577617</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
-        <v>270.66814570222</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7877584149641</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0350868665429</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359926</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477346</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816016</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245695</v>
+        <v>35.29247858245681</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339013</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0998887531831</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8569752644161</v>
+        <v>97.90474570419565</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3456855116942</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X20" t="n">
-        <v>295.8358174727502</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9366969762185</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290899</v>
+        <v>93.35153789290879</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249352</v>
+        <v>74.72018981249332</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085033</v>
+        <v>72.53867944085013</v>
       </c>
       <c r="F22" t="n">
-        <v>71.5257648172124</v>
+        <v>71.52576481721221</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330938</v>
+        <v>92.13052505330919</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860194</v>
+        <v>70.85973170860174</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411923</v>
+        <v>22.45713720411907</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>77.43656365928966</v>
+        <v>15.0368694643283</v>
       </c>
       <c r="S22" t="n">
-        <v>115.873742125723</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704504</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U22" t="n">
-        <v>212.316554999894</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V22" t="n">
-        <v>178.2423601181092</v>
+        <v>240.6420543130723</v>
       </c>
       <c r="W22" t="n">
-        <v>212.6277151308722</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833183</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6893701463759</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8385584577617</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652887</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7877584149641</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0350868665429</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9807625359926</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477346</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816016</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245701</v>
+        <v>35.29247858245681</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339013</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0998887531831</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V23" t="n">
-        <v>253.8569752644161</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3456855116942</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X23" t="n">
-        <v>295.8358174727502</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3426554503347</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762185</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290899</v>
+        <v>93.35153789290879</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249352</v>
+        <v>74.72018981249332</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085033</v>
+        <v>72.53867944085013</v>
       </c>
       <c r="F25" t="n">
-        <v>71.5257648172124</v>
+        <v>71.52576481721221</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330938</v>
+        <v>92.13052505330919</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860194</v>
+        <v>70.85973170860174</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411927</v>
+        <v>22.45713720411907</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.0368694643285</v>
+        <v>15.0368694643283</v>
       </c>
       <c r="S25" t="n">
-        <v>115.8737421257231</v>
+        <v>178.2734363206861</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6536660704504</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>274.7162491948538</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V25" t="n">
-        <v>178.2423601181092</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W25" t="n">
-        <v>212.6277151308722</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833183</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6893701463759</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.2977551524151</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.900909123119</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.946589034861</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.2126251695834</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210277</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403095</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515425</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988206</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598766</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633449</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800354</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797673</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.4459114043388</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404358</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572834</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124567</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.9570160514549</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128495</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575768</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052356</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179986</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.2977551524151</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.900909123119</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>363.946589034861</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.2126251695834</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210277</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403095</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515425</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988206</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598766</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247659</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633449</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800354</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797673</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.4459114043388</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404358</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572834</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124567</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.9570160514549</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128495</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575768</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052356</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179986</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="32">
@@ -3032,16 +3032,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247659</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353754</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429024</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925778</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441566</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592153</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.5030415600707</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T35" t="n">
-        <v>106.233249911515</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307968</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420297</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893078</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503639</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279484</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383215</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052268</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010721</v>
+        <v>93.13769105450146</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846402</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F37" t="n">
-        <v>47.7363277948261</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092307</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621563</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>50.95950582245315</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>121.864229048064</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084858</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
-        <v>128.024935160932</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239896</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D38" t="n">
         <v>256.998321392578</v>
@@ -3512,13 +3512,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U38" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="39">
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383235</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010741</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482629</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092327</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>42.20693826439368</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333696</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>239.7977839309371</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y40" t="n">
         <v>120.8999331239898</v>
@@ -3740,7 +3740,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D41" t="n">
         <v>256.998321392578</v>
@@ -3749,7 +3749,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
         <v>313.2370054253485</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U41" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420302</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="42">
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C43" t="n">
-        <v>111.7690391349163</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010741</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482629</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092327</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>231.0452163728797</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3977,7 +3977,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
         <v>256.998321392578</v>
@@ -3992,7 +3992,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
         <v>153.310451730797</v>
@@ -4043,7 +4043,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="45">
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383228</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846415</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G46" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621576</v>
+        <v>90.60953276887629</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983812</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
-        <v>240.8189236182264</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
         <v>120.8999331239898</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1869.626603223583</v>
+        <v>1465.153151170352</v>
       </c>
       <c r="C11" t="n">
-        <v>1527.856153542895</v>
+        <v>1123.382701489664</v>
       </c>
       <c r="D11" t="n">
-        <v>1196.782522195868</v>
+        <v>1123.382701489664</v>
       </c>
       <c r="E11" t="n">
-        <v>838.1863368573473</v>
+        <v>1123.382701489664</v>
       </c>
       <c r="F11" t="n">
-        <v>454.3924993274633</v>
+        <v>739.5888639597799</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218343</v>
+        <v>351.7084810645001</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>81.316947932991</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T11" t="n">
-        <v>3146.820141253117</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="U11" t="n">
-        <v>2920.481731786677</v>
+        <v>3016.16881092955</v>
       </c>
       <c r="V11" t="n">
-        <v>2920.481731786677</v>
+        <v>2712.297990845703</v>
       </c>
       <c r="W11" t="n">
-        <v>2594.905143776286</v>
+        <v>2533.781879692194</v>
       </c>
       <c r="X11" t="n">
-        <v>2248.63145277493</v>
+        <v>2187.508188690838</v>
       </c>
       <c r="Y11" t="n">
-        <v>1885.684188058842</v>
+        <v>1824.56092397475</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064539</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>873.8239490593749</v>
+        <v>641.7333207357658</v>
       </c>
       <c r="C13" t="n">
-        <v>732.0798333911915</v>
+        <v>499.9892050675826</v>
       </c>
       <c r="D13" t="n">
-        <v>609.1552612385796</v>
+        <v>377.0646329149706</v>
       </c>
       <c r="E13" t="n">
-        <v>488.4342349159101</v>
+        <v>256.3436065923011</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1816152420904</v>
+        <v>136.6457263541144</v>
       </c>
       <c r="G13" t="n">
-        <v>255.670845876533</v>
+        <v>136.6457263541144</v>
       </c>
       <c r="H13" t="n">
         <v>136.6457263541144</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003741</v>
+        <v>138.285694000374</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705056</v>
+        <v>368.9238220705054</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402571</v>
+        <v>712.1345656402566</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5212,7 +5212,7 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P13" t="n">
         <v>2036.240867784764</v>
@@ -5221,28 +5221,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.863719075785</v>
+        <v>2077.863719075786</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.369902162335</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T13" t="n">
-        <v>1718.795353991585</v>
+        <v>1718.795353991586</v>
       </c>
       <c r="U13" t="n">
-        <v>1718.795353991585</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.302933045422</v>
+        <v>1452.812816605619</v>
       </c>
       <c r="W13" t="n">
-        <v>1229.077830268185</v>
+        <v>1190.587713828382</v>
       </c>
       <c r="X13" t="n">
-        <v>1028.280346629891</v>
+        <v>989.7902301900881</v>
       </c>
       <c r="Y13" t="n">
-        <v>1028.280346629891</v>
+        <v>796.1897183062817</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1766.94258496062</v>
+        <v>1365.645403423856</v>
       </c>
       <c r="C14" t="n">
-        <v>1425.172135279931</v>
+        <v>1023.874953743168</v>
       </c>
       <c r="D14" t="n">
-        <v>1094.098503932905</v>
+        <v>692.801322396141</v>
       </c>
       <c r="E14" t="n">
-        <v>735.5023185943842</v>
+        <v>692.801322396141</v>
       </c>
       <c r="F14" t="n">
-        <v>351.7084810645002</v>
+        <v>309.0074848662572</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7084810645002</v>
+        <v>309.0074848662572</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299107</v>
+        <v>81.31694793299101</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.507220395991</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.721540039937</v>
+        <v>3063.721540039936</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.383130573497</v>
+        <v>3063.721540039936</v>
       </c>
       <c r="V14" t="n">
-        <v>2533.51231048965</v>
+        <v>2759.85071995609</v>
       </c>
       <c r="W14" t="n">
-        <v>2533.51231048965</v>
+        <v>2434.274131945699</v>
       </c>
       <c r="X14" t="n">
-        <v>2187.238619488293</v>
+        <v>2088.000440944343</v>
       </c>
       <c r="Y14" t="n">
-        <v>1824.291354772205</v>
+        <v>1725.053176228254</v>
       </c>
     </row>
     <row r="15">
@@ -5349,16 +5349,16 @@
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064539</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L15" t="n">
         <v>765.1517452158131</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>611.913149444742</v>
+        <v>901.2692096237417</v>
       </c>
       <c r="C16" t="n">
-        <v>611.913149444742</v>
+        <v>759.5250939555585</v>
       </c>
       <c r="D16" t="n">
-        <v>488.9885772921298</v>
+        <v>636.6005218029464</v>
       </c>
       <c r="E16" t="n">
-        <v>368.2675509694603</v>
+        <v>515.879495480277</v>
       </c>
       <c r="F16" t="n">
-        <v>368.2675509694603</v>
+        <v>396.1816152420903</v>
       </c>
       <c r="G16" t="n">
-        <v>227.7567816039029</v>
+        <v>255.6708458765329</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541145</v>
+        <v>136.6457263541144</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003742</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
         <v>368.9238220705057</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402569</v>
+        <v>712.1345656402571</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5449,7 +5449,7 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P16" t="n">
         <v>2036.240867784764</v>
@@ -5458,28 +5458,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.863719075785</v>
+        <v>2077.863719075786</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.369902162335</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.795353991585</v>
+        <v>1718.795353991586</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.884554376952</v>
+        <v>1718.795353991586</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.392133430789</v>
+        <v>1518.748193609788</v>
       </c>
       <c r="W16" t="n">
-        <v>967.1670306535518</v>
+        <v>1256.523090832551</v>
       </c>
       <c r="X16" t="n">
-        <v>766.369547015258</v>
+        <v>1055.725607194258</v>
       </c>
       <c r="Y16" t="n">
-        <v>766.369547015258</v>
+        <v>1055.725607194258</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1855.320338666653</v>
+        <v>1855.320338666651</v>
       </c>
       <c r="C17" t="n">
-        <v>1560.999521934038</v>
+        <v>1560.999521934037</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.375523535084</v>
+        <v>1277.375523535083</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446367</v>
+        <v>966.2289711446361</v>
       </c>
       <c r="F17" t="n">
-        <v>629.884766562826</v>
+        <v>629.8847665628256</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156194</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609172</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609172</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U17" t="n">
-        <v>3146.717045090805</v>
+        <v>3004.19017068604</v>
       </c>
       <c r="V17" t="n">
-        <v>3059.727123406593</v>
+        <v>2747.768983550266</v>
       </c>
       <c r="W17" t="n">
-        <v>2781.600168344276</v>
+        <v>2469.642028487949</v>
       </c>
       <c r="X17" t="n">
-        <v>2482.776110290993</v>
+        <v>2170.817970434666</v>
       </c>
       <c r="Y17" t="n">
-        <v>2167.278478522978</v>
+        <v>1855.320338666651</v>
       </c>
     </row>
     <row r="18">
@@ -5568,52 +5568,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387302</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1217789872297</v>
+        <v>569.1217789872283</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671197</v>
+        <v>474.8272962671184</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625807</v>
+        <v>399.3523570625797</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879844</v>
+        <v>326.0809636879836</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978709</v>
+        <v>253.8327163978703</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803867</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604126</v>
+        <v>89.19609340604106</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1849.075796917494</v>
+        <v>1912.105791053818</v>
       </c>
       <c r="S19" t="n">
-        <v>1732.031612952117</v>
+        <v>1795.061607088441</v>
       </c>
       <c r="T19" t="n">
-        <v>1584.90669772944</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
-        <v>1370.44553106288</v>
+        <v>1433.475525199205</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.40274306479</v>
+        <v>1253.432737201115</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6272732356265</v>
+        <v>1038.657267371952</v>
       </c>
       <c r="X19" t="n">
-        <v>822.279422545406</v>
+        <v>885.3094166817312</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1285436096726</v>
+        <v>676.1285436096709</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1834.401689310018</v>
+        <v>1855.320338666651</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.999521934038</v>
+        <v>1560.999521934036</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.375523535084</v>
+        <v>1277.375523535083</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2289711446366</v>
+        <v>966.2289711446358</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628259</v>
+        <v>629.8847665628252</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156194</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344064</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.620805936083</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.732029417717</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.310842281943</v>
+        <v>3059.727123406591</v>
       </c>
       <c r="W20" t="n">
-        <v>2445.183887219625</v>
+        <v>2781.600168344274</v>
       </c>
       <c r="X20" t="n">
-        <v>2146.359829166343</v>
+        <v>2482.776110290991</v>
       </c>
       <c r="Y20" t="n">
-        <v>2146.359829166343</v>
+        <v>2167.278478522976</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031482</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872297</v>
+        <v>569.1217789872283</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671197</v>
+        <v>474.8272962671184</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625807</v>
+        <v>399.3523570625797</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879844</v>
+        <v>326.0809636879836</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978709</v>
+        <v>253.8327163978703</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803867</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604126</v>
+        <v>89.19609340604107</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791191</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1849.075796917494</v>
+        <v>1912.105791053817</v>
       </c>
       <c r="S22" t="n">
-        <v>1732.031612952117</v>
+        <v>1795.061607088441</v>
       </c>
       <c r="T22" t="n">
-        <v>1584.90669772944</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1370.44553106288</v>
+        <v>1433.475525199204</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.40274306479</v>
+        <v>1190.402743064788</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6272732356265</v>
+        <v>975.6272732356243</v>
       </c>
       <c r="X22" t="n">
-        <v>822.279422545406</v>
+        <v>822.279422545404</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096726</v>
+        <v>676.1285436096709</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.185977056952</v>
+        <v>1862.18597705695</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324337</v>
+        <v>1567.865160324336</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925383</v>
+        <v>1284.241161925382</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349357</v>
+        <v>973.094609534935</v>
       </c>
       <c r="F23" t="n">
-        <v>636.750404953125</v>
+        <v>636.7504049531244</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059184</v>
+        <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37775482248243</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37775482248243</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="J23" t="n">
         <v>262.2568857815078</v>
@@ -5993,46 +5993,46 @@
         <v>596.0762594713542</v>
       </c>
       <c r="L23" t="n">
-        <v>1047.110472719763</v>
+        <v>1383.526753844413</v>
       </c>
       <c r="M23" t="n">
-        <v>1917.05865851634</v>
+        <v>1917.058658516337</v>
       </c>
       <c r="N23" t="n">
-        <v>2463.837475575122</v>
+        <v>2463.837475575119</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.809946454459</v>
+        <v>2966.809946454456</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811637</v>
+        <v>3361.584312811634</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567319</v>
+        <v>3609.870674567316</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.887741124121</v>
+        <v>3668.887741124119</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859014</v>
+        <v>3633.238772859011</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.902725451032</v>
+        <v>3501.90272545103</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932666</v>
+        <v>3323.013948932663</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796892</v>
+        <v>3066.59276179689</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734574</v>
+        <v>2788.465806734573</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.641748681292</v>
+        <v>2489.64174868129</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913277</v>
+        <v>2174.144116913275</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714077</v>
+        <v>948.4094928714064</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902807</v>
+        <v>773.9564635902794</v>
       </c>
       <c r="D24" t="n">
-        <v>625.0220539290294</v>
+        <v>625.0220539290282</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235739</v>
+        <v>465.7845989235727</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504589</v>
+        <v>319.2500409504577</v>
       </c>
       <c r="G24" t="n">
-        <v>182.886940783077</v>
+        <v>182.8869407830758</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094449</v>
+        <v>92.38504642094328</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37775482248243</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130997</v>
+        <v>167.0550243130996</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934468</v>
+        <v>405.3192232934467</v>
       </c>
       <c r="L24" t="n">
-        <v>772.017383606112</v>
+        <v>772.0173836061119</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
@@ -6084,34 +6084,34 @@
         <v>2103.778031800937</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.27762327704</v>
+        <v>2414.277623277039</v>
       </c>
       <c r="Q24" t="n">
-        <v>2571.91918092364</v>
+        <v>2571.919180923639</v>
       </c>
       <c r="R24" t="n">
-        <v>2571.774827516155</v>
+        <v>2571.774827516154</v>
       </c>
       <c r="S24" t="n">
-        <v>2442.336941009635</v>
+        <v>2442.336941009634</v>
       </c>
       <c r="T24" t="n">
-        <v>2249.693940687491</v>
+        <v>2249.69394068749</v>
       </c>
       <c r="U24" t="n">
-        <v>2021.626093821907</v>
+        <v>2021.626093821905</v>
       </c>
       <c r="V24" t="n">
-        <v>1786.473985590164</v>
+        <v>1786.473985590163</v>
       </c>
       <c r="W24" t="n">
-        <v>1532.236628861962</v>
+        <v>1532.236628861961</v>
       </c>
       <c r="X24" t="n">
-        <v>1324.38512865643</v>
+        <v>1324.385128656428</v>
       </c>
       <c r="Y24" t="n">
-        <v>1116.624829891476</v>
+        <v>1116.624829891475</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9874173775288</v>
+        <v>575.9874173775272</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574187</v>
+        <v>481.6929346574174</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528798</v>
+        <v>406.2179954528787</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782835</v>
+        <v>332.9466020782826</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881699</v>
+        <v>260.6983547881692</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706857</v>
+        <v>167.6372183706852</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634028</v>
+        <v>96.06173179634003</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37775482248243</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="J25" t="n">
-        <v>118.500387269418</v>
+        <v>118.5003872694179</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182943</v>
+        <v>322.4875702182942</v>
       </c>
       <c r="L25" t="n">
         <v>639.0473686667904</v>
@@ -6172,25 +6172,25 @@
         <v>1918.971429444116</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.927245478739</v>
+        <v>1738.897251342413</v>
       </c>
       <c r="T25" t="n">
-        <v>1654.802330256062</v>
+        <v>1591.772336119736</v>
       </c>
       <c r="U25" t="n">
-        <v>1377.311169453179</v>
+        <v>1377.311169453177</v>
       </c>
       <c r="V25" t="n">
-        <v>1197.268381455089</v>
+        <v>1197.268381455087</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4929116259256</v>
+        <v>982.4929116259233</v>
       </c>
       <c r="X25" t="n">
-        <v>829.145060935705</v>
+        <v>829.145060935703</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999717</v>
+        <v>682.9941819999699</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
         <v>1711.594658697161</v>
@@ -6209,46 +6209,46 @@
         <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398488</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J26" t="n">
-        <v>393.2994530991718</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>727.1188267890182</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L26" t="n">
-        <v>1178.153040037427</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M26" t="n">
-        <v>1711.684944709351</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N26" t="n">
-        <v>2258.463761768133</v>
+        <v>2475.30339983534</v>
       </c>
       <c r="O26" t="n">
-        <v>2761.43623264747</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094416</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603404</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
         <v>3994.504809309627</v>
@@ -6266,7 +6266,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
         <v>2372.257749805548</v>
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D27" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F27" t="n">
         <v>327.0192030246656</v>
@@ -6300,28 +6300,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q27" t="n">
         <v>2579.688342997847</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698009</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899672</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257047</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913848</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415476</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643397</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302707</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973136</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982166</v>
+        <v>786.3326864982164</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308446</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481266</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167332</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572253</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277854</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052754</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570353</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.38513864407</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297369</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519675</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="29">
@@ -6443,67 +6443,67 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398488</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>603.845421545561</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>2033.429937623798</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.29557928546</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164796</v>
+        <v>3036.687329075028</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521974</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277657</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805549</v>
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873064</v>
@@ -6564,25 +6564,25 @@
         <v>2579.688342997846</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T30" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U30" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V30" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W30" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y30" t="n">
         <v>1124.393991965682</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698009</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899672</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257047</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913848</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415476</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643397</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302707</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982166</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.856749167332</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572253</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277854</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052754</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570353</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.38513864407</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297369</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519675</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467804</v>
+        <v>698.9037015467792</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>603.845421545561</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>1872.543307058813</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.29557928546</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164796</v>
+        <v>3182.560655874483</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521974</v>
+        <v>3577.335022231661</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277657</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873064</v>
@@ -6801,25 +6801,25 @@
         <v>2579.688342997846</v>
       </c>
       <c r="R33" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S33" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T33" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U33" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W33" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X33" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y33" t="n">
         <v>1124.393991965682</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D34" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E34" t="n">
         <v>449.4840331913841</v>
@@ -6847,34 +6847,34 @@
         <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973142</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q34" t="n">
         <v>2313.972430572251</v>
@@ -6886,7 +6886,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="35">
@@ -6920,67 +6920,67 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464977</v>
+        <v>894.1397680464971</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495726</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668173</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811072</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999803</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387291</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332735</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601586</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>453.7336441225995</v>
+        <v>642.2355359389144</v>
       </c>
       <c r="C37" t="n">
-        <v>383.4688957685361</v>
+        <v>571.9707875848509</v>
       </c>
       <c r="D37" t="n">
-        <v>332.023690930044</v>
+        <v>477.8923117722231</v>
       </c>
       <c r="E37" t="n">
-        <v>282.7820319214945</v>
+        <v>428.6506527636735</v>
       </c>
       <c r="F37" t="n">
-        <v>234.5635189974277</v>
+        <v>281.7607052657632</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5321169459903</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
-        <v>117.9863647376916</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.6347488791189</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1522.683025816216</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1233.58015894186</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V37" t="n">
-        <v>978.8956707359729</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W37" t="n">
-        <v>788.1499352728558</v>
+        <v>976.6518270891711</v>
       </c>
       <c r="X37" t="n">
-        <v>658.8318189486821</v>
+        <v>847.3337107649972</v>
       </c>
       <c r="Y37" t="n">
-        <v>536.7106743789956</v>
+        <v>725.2125661953106</v>
       </c>
     </row>
     <row r="38">
@@ -7157,19 +7157,19 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464976</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307335</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912088</v>
@@ -7181,28 +7181,28 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
         <v>3051.821232515855</v>
@@ -7245,10 +7245,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7257,13 +7257,13 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170925</v>
+        <v>599.602264964779</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630289</v>
+        <v>529.3375166107155</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245366</v>
+        <v>379.2208771983798</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159869</v>
+        <v>329.9792181898301</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279953</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.46409084602</v>
+        <v>1884.661277114357</v>
       </c>
       <c r="S40" t="n">
-        <v>1744.44964124669</v>
+        <v>1692.975392941184</v>
       </c>
       <c r="T40" t="n">
-        <v>1522.683025816216</v>
+        <v>1569.880212084553</v>
       </c>
       <c r="U40" t="n">
-        <v>1233.58015894186</v>
+        <v>1379.44877978404</v>
       </c>
       <c r="V40" t="n">
-        <v>978.8956707359729</v>
+        <v>1223.435726151997</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673495</v>
+        <v>1032.689990688879</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431756</v>
+        <v>903.3718743647054</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734888</v>
+        <v>781.2507297950187</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
@@ -7394,13 +7394,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464972</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307329</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7409,10 +7409,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7421,10 +7421,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296685</v>
@@ -7506,7 +7506,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>444.8926667912272</v>
+        <v>599.602264964779</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630289</v>
+        <v>529.3375166107155</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245366</v>
+        <v>379.2208771983798</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159869</v>
+        <v>329.9792181898301</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G43" t="n">
         <v>114.0578686404822</v>
@@ -7594,7 +7594,7 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T43" t="n">
         <v>1612.513483058688</v>
@@ -7606,13 +7606,13 @@
         <v>1266.068997126132</v>
       </c>
       <c r="W43" t="n">
-        <v>1075.323261663014</v>
+        <v>1032.689990688879</v>
       </c>
       <c r="X43" t="n">
-        <v>847.333710764997</v>
+        <v>903.3718743647054</v>
       </c>
       <c r="Y43" t="n">
-        <v>626.5411316214669</v>
+        <v>682.5792952211752</v>
       </c>
     </row>
     <row r="44">
@@ -7628,16 +7628,16 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464968</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F44" t="n">
         <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7646,22 +7646,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296686</v>
@@ -7676,7 +7676,7 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
         <v>3051.821232515854</v>
@@ -7725,19 +7725,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>499.5850729987466</v>
+        <v>642.235535938914</v>
       </c>
       <c r="C46" t="n">
-        <v>429.3203246446832</v>
+        <v>571.9707875848505</v>
       </c>
       <c r="D46" t="n">
-        <v>377.8751198061909</v>
+        <v>520.5255827463583</v>
       </c>
       <c r="E46" t="n">
-        <v>328.6334607976413</v>
+        <v>372.6124891639652</v>
       </c>
       <c r="F46" t="n">
-        <v>280.4149478735744</v>
+        <v>324.3939762398982</v>
       </c>
       <c r="G46" t="n">
-        <v>211.3835458221368</v>
+        <v>255.3625741884606</v>
       </c>
       <c r="H46" t="n">
         <v>163.8377936138381</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672847</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T46" t="n">
-        <v>1424.011591242373</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U46" t="n">
-        <v>1180.760153244164</v>
+        <v>1520.753485332018</v>
       </c>
       <c r="V46" t="n">
-        <v>1024.747099612121</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W46" t="n">
-        <v>834.0013641490034</v>
+        <v>1075.323261663014</v>
       </c>
       <c r="X46" t="n">
-        <v>704.6832478248296</v>
+        <v>946.0051453388405</v>
       </c>
       <c r="Y46" t="n">
-        <v>582.5621032551429</v>
+        <v>823.8840007691538</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430633</v>
+        <v>157.2353108430629</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729011</v>
+        <v>184.4039433729005</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389608</v>
+        <v>191.4948909389601</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333072</v>
+        <v>181.0856325333064</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830246</v>
+        <v>179.3553748830237</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383995</v>
+        <v>182.8301554383987</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586589</v>
+        <v>190.8908035586582</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266127</v>
+        <v>192.0103836266122</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875975</v>
+        <v>112.6562001875973</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372535</v>
+        <v>113.6031223372531</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672277</v>
+        <v>105.9629718672271</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253597</v>
+        <v>104.101398125359</v>
       </c>
       <c r="N9" t="n">
-        <v>92.3024655867769</v>
+        <v>92.30246558677625</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359739</v>
+        <v>106.8829608359733</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798327</v>
+        <v>105.3113487798322</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615459</v>
+        <v>120.8212784615456</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.175525256466</v>
+        <v>116.1755252564656</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085229</v>
+        <v>119.1996074085226</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140779</v>
+        <v>108.4284123140776</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530926</v>
+        <v>120.6694600530923</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662706</v>
+        <v>122.5080856662703</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>-5.111191535722973e-15</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9641,10 +9641,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>339.8144253784342</v>
       </c>
       <c r="M23" t="n">
-        <v>339.8144253784371</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>124.5185911550073</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9884,19 +9884,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>19.40311602546524</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,16 +10118,16 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>274.8351763665447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>233.4533865158204</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10355,19 +10355,19 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>287.0017854473931</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>174.4519134245577</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1.70530256582424e-12</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719372</v>
+        <v>15.02219619719371</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>339.9166860894478</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>327.7628950335565</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6876178001941</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579955</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104945</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830085</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>145.5898720883131</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>27.17080795872342</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184865</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>221.1864763430806</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>299.0384129628843</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0015790663271</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>42.2739862362605</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,13 +23549,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302866</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115014</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358049</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>27.63492362990392</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>27.17080795872232</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649684</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23780,16 +23780,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245695</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339013</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>24.21355985564115</v>
       </c>
       <c r="V17" t="n">
-        <v>167.7369527970458</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>20.70946286306867</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24023,10 +24023,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>155.9522295602202</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3426554503347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1339085.362413294</v>
+        <v>1339085.362413293</v>
       </c>
     </row>
     <row r="5">
@@ -26314,16 +26314,16 @@
         <v>184337.1762113337</v>
       </c>
       <c r="C2" t="n">
-        <v>184337.1762113336</v>
+        <v>184337.1762113337</v>
       </c>
       <c r="D2" t="n">
-        <v>184342.200706338</v>
+        <v>184342.2007063379</v>
       </c>
       <c r="E2" t="n">
-        <v>164146.5002036193</v>
+        <v>164146.5002036194</v>
       </c>
       <c r="F2" t="n">
-        <v>164146.5002036193</v>
+        <v>164146.5002036192</v>
       </c>
       <c r="G2" t="n">
         <v>178769.4347804708</v>
@@ -26338,19 +26338,19 @@
         <v>184734.3982194639</v>
       </c>
       <c r="K2" t="n">
+        <v>184734.3982194637</v>
+      </c>
+      <c r="L2" t="n">
         <v>184734.3982194639</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>184734.3982194639</v>
+      </c>
+      <c r="N2" t="n">
         <v>184734.3982194638</v>
       </c>
-      <c r="M2" t="n">
-        <v>184734.3982194636</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>184734.3982194639</v>
-      </c>
-      <c r="O2" t="n">
-        <v>184734.3982194638</v>
       </c>
       <c r="P2" t="n">
         <v>184734.3982194638</v>
@@ -26369,25 +26369,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552229</v>
+        <v>59764.55367552329</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163633</v>
+        <v>1089238.972163632</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487432</v>
+        <v>37580.10929487407</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983318</v>
+        <v>22821.46782983363</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179689</v>
+        <v>25409.43302179701</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>430603.4278954653</v>
+        <v>430603.4278954649</v>
       </c>
       <c r="E4" t="n">
-        <v>40024.16194364971</v>
+        <v>40024.16194364977</v>
       </c>
       <c r="F4" t="n">
-        <v>40024.16194364971</v>
+        <v>40024.16194364977</v>
       </c>
       <c r="G4" t="n">
-        <v>77052.32230509177</v>
+        <v>77052.32230509199</v>
       </c>
       <c r="H4" t="n">
-        <v>77052.32230509186</v>
+        <v>77052.32230509201</v>
       </c>
       <c r="I4" t="n">
-        <v>90617.51027754386</v>
+        <v>90617.5102775439</v>
       </c>
       <c r="J4" t="n">
-        <v>88960.95519699581</v>
+        <v>88960.95519699584</v>
       </c>
       <c r="K4" t="n">
-        <v>88960.95519699584</v>
+        <v>88960.95519699593</v>
       </c>
       <c r="L4" t="n">
-        <v>88960.9551969959</v>
+        <v>88960.95519699591</v>
       </c>
       <c r="M4" t="n">
-        <v>92183.89891818185</v>
+        <v>92183.89891818177</v>
       </c>
       <c r="N4" t="n">
-        <v>92183.89891818179</v>
+        <v>92183.89891818177</v>
       </c>
       <c r="O4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="P4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818176</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26473,22 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186635</v>
+        <v>35148.90543186637</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482643</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.49036482644</v>
+        <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521491</v>
+        <v>80518.64312521489</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521491</v>
+        <v>80518.64312521489</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.52830184212</v>
+        <v>85736.52830184209</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26497,7 +26497,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624985</v>
@@ -26506,7 +26506,7 @@
         <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
         <v>82518.59730624985</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-301690.4143376315</v>
+        <v>-301694.8279154996</v>
       </c>
       <c r="C6" t="n">
-        <v>-301690.4143376315</v>
+        <v>-301694.8279154996</v>
       </c>
       <c r="D6" t="n">
-        <v>-341174.6862965159</v>
+        <v>-341179.0440466626</v>
       </c>
       <c r="E6" t="n">
-        <v>-1041686.124268489</v>
+        <v>-1041914.878690887</v>
       </c>
       <c r="F6" t="n">
-        <v>47552.84789514319</v>
+        <v>47324.09347274477</v>
       </c>
       <c r="G6" t="n">
-        <v>-16381.63994471022</v>
+        <v>-16447.91731625449</v>
       </c>
       <c r="H6" t="n">
-        <v>21198.46935016414</v>
+        <v>21132.19197861982</v>
       </c>
       <c r="I6" t="n">
-        <v>-14441.10818975534</v>
+        <v>-14441.10818975582</v>
       </c>
       <c r="J6" t="n">
-        <v>-19013.93167413495</v>
+        <v>-19013.93167413509</v>
       </c>
       <c r="K6" t="n">
-        <v>6395.501347661921</v>
+        <v>6395.501347661688</v>
       </c>
       <c r="L6" t="n">
-        <v>-31184.60794721228</v>
+        <v>-31184.60794721225</v>
       </c>
       <c r="M6" t="n">
-        <v>-192136.1979976924</v>
+        <v>-192136.197997692</v>
       </c>
       <c r="N6" t="n">
-        <v>10031.9019950323</v>
+        <v>10031.9019950322</v>
       </c>
       <c r="O6" t="n">
-        <v>10031.90199503223</v>
+        <v>10031.90199503231</v>
       </c>
       <c r="P6" t="n">
-        <v>10031.90199503214</v>
+        <v>10031.90199503218</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790584</v>
+        <v>69.784652837907</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,10 +26750,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="F4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="F4" t="n">
-        <v>831.4014554022931</v>
-      </c>
       <c r="G4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810304</v>
+        <v>917.2219352810297</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
@@ -26820,10 +26820,10 @@
         <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022926</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859246</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951259</v>
+        <v>50.70958360951244</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26963,22 +26963,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790584</v>
+        <v>69.784652837907</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755392</v>
+        <v>1019.992047755391</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.3811986515257e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873727</v>
+        <v>85.82047987873705</v>
       </c>
       <c r="J4" t="n">
-        <v>97.1145259275844</v>
+        <v>97.11452592758485</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959705</v>
+        <v>648.4664495959709</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859246</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434005</v>
+        <v>336.6017083434004</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104728</v>
+        <v>199.6603204104726</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780176</v>
+        <v>132.2465643780173</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036573</v>
+        <v>202.6272343036572</v>
       </c>
       <c r="T8" t="n">
         <v>221.8677799448432</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.2286184667211</v>
+        <v>84.22861846672102</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987526</v>
+        <v>90.8382912698751</v>
       </c>
       <c r="S9" t="n">
         <v>168.895076719229</v>
@@ -28026,16 +28026,16 @@
         <v>167.8651381812101</v>
       </c>
       <c r="H10" t="n">
-        <v>161.1083300406286</v>
+        <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
         <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519092</v>
+        <v>84.46220888519076</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990454</v>
+        <v>7.649035050990209</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317061</v>
+        <v>75.62456067317044</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437878</v>
+        <v>171.6351144437877</v>
       </c>
       <c r="S10" t="n">
         <v>221.8235295207384</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>11.49558901075763</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571884</v>
+        <v>11.49558901075511</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.49558901075763</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571884</v>
+        <v>11.49558901075574</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571884</v>
+        <v>11.49558901075577</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U25" t="n">
-        <v>11.49558901075909</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571884</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859173</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N28" t="n">
-        <v>46.9751366185954</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P31" t="n">
-        <v>46.9751366185954</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859216</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810515</v>
+        <v>55.4777819637109</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810515</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810515</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>45.39291458738496</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810515</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.72521440565367</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W40" t="n">
-        <v>46.72521440565387</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810471</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="42">
@@ -30615,25 +30615,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C43" t="n">
-        <v>55.47778196371158</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983812</v>
@@ -30666,22 +30666,22 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810495</v>
+        <v>55.47778196371135</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="45">
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810502</v>
+        <v>54.14548214544449</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U46" t="n">
-        <v>45.39291458738646</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413298</v>
+        <v>0.2805413179413345</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366644</v>
+        <v>2.873093772366692</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993313</v>
+        <v>10.81556915993331</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362296</v>
+        <v>23.81059368362336</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207946</v>
+        <v>35.68590767208006</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102644</v>
+        <v>44.27152403102718</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396556</v>
+        <v>49.26060069396638</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356637</v>
+        <v>50.0576887135672</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328727</v>
+        <v>47.26805598328806</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661068</v>
+        <v>40.34219219661136</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.2953062478368</v>
+        <v>30.2953062478373</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313207</v>
+        <v>17.62255356313237</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588059</v>
+        <v>6.392835282588166</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288172</v>
+        <v>1.228069619288192</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530638</v>
+        <v>0.02244330543530675</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796465</v>
+        <v>0.150102838179649</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840271</v>
+        <v>1.449677410840295</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384693971</v>
+        <v>5.168014384694057</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906915</v>
+        <v>14.18142647906939</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710547</v>
+        <v>24.23831663710587</v>
       </c>
       <c r="L9" t="n">
-        <v>32.5914079126465</v>
+        <v>32.59140791264704</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665867</v>
+        <v>38.03263579665931</v>
       </c>
       <c r="N9" t="n">
-        <v>39.0392464965564</v>
+        <v>39.03924649655706</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847055</v>
+        <v>35.71328360847114</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449759</v>
+        <v>28.66305863449807</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447558</v>
+        <v>19.1604956244759</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767882</v>
+        <v>9.319542882768037</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608784</v>
+        <v>2.78809438460883</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890136</v>
+        <v>0.6050197731890237</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345171</v>
+        <v>0.009875186722345336</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486827</v>
+        <v>0.1258411772486847</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811016</v>
+        <v>1.118842466811034</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078567</v>
+        <v>3.78438740307863</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481862</v>
+        <v>8.896971231482011</v>
       </c>
       <c r="K10" t="n">
-        <v>14.6204567748924</v>
+        <v>14.62045677489264</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477233</v>
+        <v>18.70915102477264</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908213</v>
+        <v>19.72617653908246</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115524</v>
+        <v>19.25713215115556</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875017</v>
+        <v>17.78707839875047</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287703</v>
+        <v>15.21991838287728</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852378</v>
+        <v>10.53748257852396</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381675</v>
+        <v>5.658276933381769</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233859</v>
+        <v>2.193068516233896</v>
       </c>
       <c r="T10" t="n">
-        <v>0.537685030062553</v>
+        <v>0.537685030062562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564515</v>
+        <v>0.006864064213564631</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.928301823346</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33737,7 +33737,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138795</v>
@@ -33977,7 +33977,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233474</v>
@@ -33989,7 +33989,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987486</v>
@@ -34226,10 +34226,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34463,7 +34463,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987486</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019263</v>
+        <v>72.49856320019268</v>
       </c>
       <c r="K13" t="n">
         <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573246</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N13" t="n">
         <v>371.7770927546665</v>
@@ -35583,10 +35583,10 @@
         <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8772177322368</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.31438512502</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019263</v>
+        <v>72.49856320019271</v>
       </c>
       <c r="K16" t="n">
         <v>232.967806131446</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573245</v>
+        <v>346.6775187573247</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N16" t="n">
         <v>371.7770927546665</v>
@@ -35820,10 +35820,10 @@
         <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322368</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.31438512502</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882195</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013277</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306628</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,10 +36361,10 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>795.4045397707662</v>
       </c>
       <c r="M23" t="n">
-        <v>878.7355412086637</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129113</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>315.3055921237198</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>571.7049514383767</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165864</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K28" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629113</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887905</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120762</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861355</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637028</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554004</v>
@@ -36838,16 +36838,16 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>827.137011779456</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>741.5063874040394</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037194</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165864</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887905</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120762</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861324</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637058</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554004</v>
@@ -37075,19 +37075,19 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>825.9229012776196</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>425.2462182282771</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222472</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120759</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37309,7 +37309,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923326</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302265</v>
@@ -37385,7 +37385,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340053</v>
@@ -37549,7 +37549,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302282</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129113</v>
@@ -37564,7 +37564,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013291</v>
@@ -37637,7 +37637,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127271</v>
@@ -37874,10 +37874,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554011</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923319</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38111,7 +38111,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127271</v>
